--- a/StructureDefinition-LaboratoryLM.xlsx
+++ b/StructureDefinition-LaboratoryLM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:05:41+00:00</t>
+    <t>2024-04-10T12:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-LaboratoryLM.xlsx
+++ b/StructureDefinition-LaboratoryLM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:38:22+00:00</t>
+    <t>2024-04-10T12:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
